--- a/biology/Botanique/Frontenac_(cépage)/Frontenac_(cépage).xlsx
+++ b/biology/Botanique/Frontenac_(cépage)/Frontenac_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frontenac_(c%C3%A9page)</t>
+          <t>Frontenac_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le frontenac N[n. 1] est un cépage noir hybride. C'est un cultivar de vigne créé par l'université du Minnesota en 1996 à partir du cépage vitis riparia 89 et du cépage hybride français landot 4511 (landot noir). Il est reconnu pour sa résistance au froid et peut survivre à des températures allant jusqu'à -36 °C [1]. Il existe aussi un frontenac gris (utilisé depuis 2003) et un frontenac blanc (dont la création est prévue pour 2012[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le frontenac N[n. 1] est un cépage noir hybride. C'est un cultivar de vigne créé par l'université du Minnesota en 1996 à partir du cépage vitis riparia 89 et du cépage hybride français landot 4511 (landot noir). Il est reconnu pour sa résistance au froid et peut survivre à des températures allant jusqu'à -36 °C . Il existe aussi un frontenac gris (utilisé depuis 2003) et un frontenac blanc (dont la création est prévue pour 2012).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frontenac_(c%C3%A9page)</t>
+          <t>Frontenac_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le frontenac permet la création de vins rouges ou rosés, ainsi que de vins fortifiés ou de vins de dessert[1]. Ils ont des arômes de cerises, petits fruits et prunes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le frontenac permet la création de vins rouges ou rosés, ainsi que de vins fortifiés ou de vins de dessert. Ils ont des arômes de cerises, petits fruits et prunes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frontenac_(c%C3%A9page)</t>
+          <t>Frontenac_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Régions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le frontenac est particulièrement utilisé dans les régions où les températures peuvent descendre considérablement en hiver, comme le Québec, et, aux États-Unis, la Nouvelle-Angleterre, le Vermont et le Midwest[1],[3],[n. 2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le frontenac est particulièrement utilisé dans les régions où les températures peuvent descendre considérablement en hiver, comme le Québec, et, aux États-Unis, la Nouvelle-Angleterre, le Vermont et le Midwest[n. 2].
 </t>
         </is>
       </c>
